--- a/Software Blink Power Consump.xlsx
+++ b/Software Blink Power Consump.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/pr478_cam_ac_uk/Documents/Year 3/GB3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dapper Chimp\Documents\GB3 Project\gb3-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{038BAE4C-8543-448B-A45F-4A1A7599CDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F26AA44-8E05-4FC0-92CF-935D6C4FB323}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32CDCE-F5F6-4FCE-A1E0-41B71EB45328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17619237-CA31-4DCC-867F-E049A8117391}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>FPGA U4</t>
   </si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>Bubblesort Power Consumption</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>pll in</t>
+  </si>
+  <si>
+    <t>io bnk 1</t>
+  </si>
+  <si>
+    <t>spi bnk 1</t>
+  </si>
+  <si>
+    <t>io bnk 2</t>
+  </si>
+  <si>
+    <t>otp prog</t>
   </si>
 </sst>
 </file>
@@ -493,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB1EF5B-00E4-4C7C-BC0B-D4D43E14D6E9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -509,7 +527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -536,8 +554,11 @@
       <c r="G4">
         <v>-14.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -550,8 +571,11 @@
       <c r="G5">
         <v>-12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -564,8 +588,11 @@
       <c r="G6">
         <v>-12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -578,8 +605,11 @@
       <c r="G7">
         <v>-12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -592,8 +622,11 @@
       <c r="G8">
         <v>-13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -606,8 +639,11 @@
       <c r="G9">
         <v>-60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -618,91 +654,127 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
         <v>8.4600000000000009</v>
       </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>-11.2</v>
       </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>-26.3</v>
       </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>11.6</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
         <v>-11.6</v>
       </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
         <v>-11.3</v>
       </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17">
         <v>-10.3</v>
       </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -710,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -721,7 +793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -732,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -743,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -754,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -765,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -776,7 +848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -784,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -795,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -806,7 +878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -817,7 +889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -828,7 +900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>27</v>
       </c>
